--- a/data/CleanedGFGP.xlsx
+++ b/data/CleanedGFGP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/A380/APHRC/GFGP/NEW GFGP/Busara Data/dash-clinical-analytics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/A380/APHRC_2/GFGP/GFGP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97658EF6-84DA-F346-9B87-7E95851485E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8163C034-2DFA-514E-B529-04FB4C8462BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{6CD3C340-5822-9B48-8C49-FF6A72F8397B}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21520" xr2:uid="{6CD3C340-5822-9B48-8C49-FF6A72F8397B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,12 +121,6 @@
     <t>Sub-grantee management</t>
   </si>
   <si>
-    <t>University’s procurement procedure documented in the finance manual /Procurement manual</t>
-  </si>
-  <si>
-    <t>University’s procurement procedure is aligned with country's Public Procurement and Disposal of Public Assets Authority (PPDA)</t>
-  </si>
-  <si>
     <t>Manual stipulating the procedure to be followed in identifying, selecting, and acquiring needed goods and services as economically as possible within specified standards of quality and service</t>
   </si>
   <si>
@@ -467,6 +461,12 @@
   </si>
   <si>
     <t>Details of the Risk Rating</t>
+  </si>
+  <si>
+    <t>University  procurement procedure documented in the finance manual /Procurement manual</t>
+  </si>
+  <si>
+    <t>University  procurement procedure is aligned with country  Public Procurement and Disposal of Public Assets Authority (PPDA)</t>
   </si>
 </sst>
 </file>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950CD200-5159-9746-BCD4-65BD2F56F671}">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,217 +1112,217 @@
         <v>27</v>
       </c>
       <c r="AD1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AR1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AS1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AU1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AV1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AW1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AX1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AY1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="BA1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="BB1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BC1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BD1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BE1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BF1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="BG1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="14" t="s">
+      <c r="BH1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BN1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BR1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BS1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BT1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BU1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BX1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BY1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="CA1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="CB1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CC1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CF1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CG1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CH1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="CH1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="CJ1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="CK1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CL1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CN1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CP1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CS1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="CR1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="CS1" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="CT1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV1" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="CU1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="CV1" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.2">
@@ -1330,40 +1330,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2">
         <v>0.83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1371,7 +1371,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1384,49 +1384,49 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AV2" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AW2" s="12"/>
       <c r="AX2" s="13"/>
@@ -1439,39 +1439,39 @@
       <c r="BE2" s="13"/>
       <c r="BF2" s="14"/>
       <c r="BG2" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BH2" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BJ2" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BL2" s="7"/>
       <c r="BM2" s="7"/>
       <c r="BN2" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BO2" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BP2" s="7"/>
       <c r="BQ2" s="7"/>
       <c r="BR2" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BS2" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BT2" s="7"/>
       <c r="BU2" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BV2" s="7"/>
       <c r="BW2" s="7"/>
@@ -1498,13 +1498,13 @@
       <c r="CR2" s="7"/>
       <c r="CS2" s="8"/>
       <c r="CT2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="CU2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV2" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="CU2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="CV2" s="16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.2">
@@ -1512,16 +1512,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3">
         <v>0.65</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F3">
         <v>0.6</v>
@@ -1533,52 +1533,52 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
@@ -1594,14 +1594,14 @@
       <c r="AV3" s="11"/>
       <c r="AW3" s="12"/>
       <c r="AX3" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY3" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AZ3" s="13"/>
       <c r="BA3" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB3" s="13"/>
       <c r="BC3" s="13"/>
@@ -1613,7 +1613,7 @@
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
       <c r="BK3" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BL3" s="7"/>
       <c r="BM3" s="7"/>
@@ -1623,23 +1623,23 @@
       <c r="BQ3" s="7"/>
       <c r="BR3" s="7"/>
       <c r="BS3" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BT3" s="7"/>
       <c r="BU3" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BV3" s="7"/>
       <c r="BW3" s="7"/>
       <c r="BX3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BY3" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="BY3" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="BZ3" s="7"/>
       <c r="CA3" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="CB3" s="7"/>
       <c r="CC3" s="7"/>
@@ -1655,28 +1655,28 @@
       <c r="CM3" s="7"/>
       <c r="CN3" s="7"/>
       <c r="CO3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CQ3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CS3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="CP3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CR3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CS3" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="CT3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="CU3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV3" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="CU3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="CV3" s="16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.2">
@@ -1684,35 +1684,35 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>0.99</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4">
         <v>0.83</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1732,67 +1732,67 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO4" s="5"/>
       <c r="AP4" s="6"/>
       <c r="AQ4" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AU4" s="10"/>
       <c r="AV4" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AW4" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AX4" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY4" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AZ4" s="13"/>
       <c r="BA4" s="13"/>
       <c r="BB4" s="13"/>
       <c r="BC4" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BD4" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BE4" s="13"/>
       <c r="BF4" s="14"/>
@@ -1801,10 +1801,10 @@
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7"/>
       <c r="BK4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL4" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="BL4" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
@@ -1815,7 +1815,7 @@
       <c r="BS4" s="7"/>
       <c r="BT4" s="7"/>
       <c r="BU4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BV4" s="7"/>
       <c r="BW4" s="7"/>
@@ -1842,13 +1842,13 @@
       <c r="CR4" s="7"/>
       <c r="CS4" s="8"/>
       <c r="CT4" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="CU4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="CV4" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.2">
@@ -1856,31 +1856,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5">
         <v>0.8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1892,7 +1892,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1904,62 +1904,62 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AM5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP5" s="6"/>
       <c r="AQ5" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AT5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AU5" s="10"/>
       <c r="AV5" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AW5" s="12"/>
       <c r="AX5" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY5" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AZ5" s="13"/>
       <c r="BA5" s="13"/>
       <c r="BB5" s="13"/>
       <c r="BC5" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BD5" s="13"/>
       <c r="BE5" s="13"/>
@@ -1971,7 +1971,7 @@
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BN5" s="7"/>
       <c r="BO5" s="7"/>
@@ -1979,11 +1979,11 @@
       <c r="BQ5" s="7"/>
       <c r="BR5" s="7"/>
       <c r="BS5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BT5" s="7"/>
       <c r="BU5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BV5" s="7"/>
       <c r="BW5" s="7"/>
@@ -2010,13 +2010,13 @@
       <c r="CR5" s="7"/>
       <c r="CS5" s="8"/>
       <c r="CT5" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="CU5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="CV5" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.2">
@@ -2024,22 +2024,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>0.99</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>0.8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2055,7 +2055,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -2066,52 +2066,52 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AO6" s="5"/>
       <c r="AP6" s="6"/>
       <c r="AQ6" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AR6" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AS6" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AT6" s="9"/>
       <c r="AU6" s="10"/>
       <c r="AV6" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AW6" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AX6" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY6" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AZ6" s="13"/>
       <c r="BA6" s="13"/>
@@ -2125,7 +2125,7 @@
       <c r="BI6" s="7"/>
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
@@ -2135,12 +2135,12 @@
       <c r="BQ6" s="7"/>
       <c r="BR6" s="7"/>
       <c r="BS6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BT6" s="7"/>
       <c r="BU6" s="7"/>
       <c r="BV6" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BW6" s="7"/>
       <c r="BX6" s="7"/>
@@ -2166,13 +2166,13 @@
       <c r="CR6" s="7"/>
       <c r="CS6" s="8"/>
       <c r="CT6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="CU6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV6" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="CU6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="CV6" s="16" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.2">
@@ -2180,36 +2180,36 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7">
         <v>0.8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2218,10 +2218,10 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -2232,74 +2232,74 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AP7" s="6"/>
       <c r="AQ7" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AR7" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AS7" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AT7" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AU7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AV7" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AW7" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AX7" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY7" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AZ7" s="13"/>
       <c r="BA7" s="13"/>
       <c r="BB7" s="13"/>
       <c r="BC7" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BD7" s="13"/>
       <c r="BE7" s="13"/>
       <c r="BF7" s="14"/>
       <c r="BG7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BH7" s="7"/>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7"/>
       <c r="BK7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BL7" s="7"/>
       <c r="BM7" s="7"/>
@@ -2309,17 +2309,17 @@
       <c r="BQ7" s="7"/>
       <c r="BR7" s="7"/>
       <c r="BS7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BT7" s="7"/>
       <c r="BU7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BV7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BW7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BX7" s="7"/>
       <c r="BY7" s="7"/>
@@ -2344,13 +2344,13 @@
       <c r="CR7" s="7"/>
       <c r="CS7" s="8"/>
       <c r="CT7" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="CU7" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="CV7" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.2">
@@ -2358,26 +2358,26 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8">
         <v>0.94</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2388,7 +2388,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -2399,58 +2399,58 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AO8" s="5"/>
       <c r="AP8" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AQ8" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR8" s="9"/>
       <c r="AS8" s="9"/>
       <c r="AT8" s="9"/>
       <c r="AU8" s="10"/>
       <c r="AV8" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AW8" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AX8" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY8" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AZ8" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BA8" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB8" s="13"/>
       <c r="BC8" s="13"/>
@@ -2466,54 +2466,54 @@
       <c r="BM8" s="7"/>
       <c r="BN8" s="7"/>
       <c r="BO8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BP8" s="7"/>
       <c r="BQ8" s="7"/>
       <c r="BR8" s="7"/>
       <c r="BS8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BT8" s="7"/>
       <c r="BU8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BV8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BW8" s="7"/>
       <c r="BX8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH8" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="BY8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BZ8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CA8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="CE8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="CF8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="CG8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="CH8" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="CI8" s="7"/>
       <c r="CJ8" s="7"/>
@@ -2527,13 +2527,13 @@
       <c r="CR8" s="7"/>
       <c r="CS8" s="8"/>
       <c r="CT8" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CU8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="CV8" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.2">
@@ -2541,19 +2541,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2561,36 +2561,36 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -2598,35 +2598,35 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ9" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AP9" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="9"/>
@@ -2636,15 +2636,15 @@
       <c r="AV9" s="11"/>
       <c r="AW9" s="12"/>
       <c r="AX9" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY9" s="13"/>
       <c r="AZ9" s="13"/>
       <c r="BA9" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB9" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BC9" s="13"/>
       <c r="BD9" s="13"/>
@@ -2655,57 +2655,57 @@
       <c r="BI9" s="7"/>
       <c r="BJ9" s="7"/>
       <c r="BK9" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BL9" s="7"/>
       <c r="BM9" s="7"/>
       <c r="BN9" s="7"/>
       <c r="BO9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BP9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BQ9" s="7"/>
       <c r="BR9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BS9" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BT9" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BU9" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BV9" s="7"/>
       <c r="BW9" s="7"/>
       <c r="BX9" s="7"/>
       <c r="BY9" s="7"/>
       <c r="BZ9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CA9" s="7"/>
       <c r="CB9" s="7"/>
       <c r="CC9" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="CD9" s="7"/>
       <c r="CE9" s="7"/>
       <c r="CF9" s="7"/>
       <c r="CG9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CH9" s="7"/>
       <c r="CI9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CJ9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CK9" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CL9" s="7"/>
       <c r="CM9" s="7"/>
@@ -2716,13 +2716,13 @@
       <c r="CR9" s="7"/>
       <c r="CS9" s="8"/>
       <c r="CT9" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="CU9" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="CV9" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.2">
@@ -2730,38 +2730,38 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10">
         <v>0.78</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2769,18 +2769,18 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
@@ -2788,19 +2788,19 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AQ10" s="8"/>
       <c r="AR10" s="9"/>
@@ -2811,27 +2811,27 @@
       <c r="AW10" s="12"/>
       <c r="AX10" s="13"/>
       <c r="AY10" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AZ10" s="13"/>
       <c r="BA10" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB10" s="13"/>
       <c r="BC10" s="13"/>
       <c r="BD10" s="13"/>
       <c r="BE10" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BF10" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BG10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BH10" s="7"/>
       <c r="BI10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BJ10" s="7"/>
       <c r="BK10" s="7"/>
@@ -2839,19 +2839,19 @@
       <c r="BM10" s="7"/>
       <c r="BN10" s="7"/>
       <c r="BO10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BP10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BQ10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
       <c r="BT10" s="7"/>
       <c r="BU10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BV10" s="7"/>
       <c r="BW10" s="7"/>
@@ -2862,27 +2862,27 @@
       <c r="CB10" s="7"/>
       <c r="CC10" s="7"/>
       <c r="CD10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="CE10" s="7"/>
       <c r="CF10" s="7"/>
       <c r="CG10" s="7"/>
       <c r="CH10" s="7"/>
       <c r="CI10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CJ10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="CK10" s="7"/>
       <c r="CL10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="CM10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CN10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CO10" s="7"/>
       <c r="CP10" s="7"/>
@@ -2890,13 +2890,13 @@
       <c r="CR10" s="7"/>
       <c r="CS10" s="8"/>
       <c r="CT10" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CU10" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="CV10" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
